--- a/API-Auto/testFile/case/购物车与结算.xlsx
+++ b/API-Auto/testFile/case/购物车与结算.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>case_name</t>
   </si>
@@ -41,6 +41,18 @@
   <si>
     <t>post</t>
   </si>
+  <si>
+    <t>添加商品到购物车为空</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>添加商品到购物车为错误</t>
+  </si>
+  <si>
+    <t>{是发达}</t>
+  </si>
 </sst>
 </file>
 
@@ -52,7 +64,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,22 +76,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,6 +126,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -105,112 +216,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,55 +226,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,127 +388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,54 +422,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,16 +435,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,11 +457,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,148 +522,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -666,8 +671,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,16 +1023,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
@@ -1057,6 +1062,34 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/API-Auto/testFile/case/购物车与结算.xlsx
+++ b/API-Auto/testFile/case/购物车与结算.xlsx
@@ -4,19 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="添加商品到购物车" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="修改购物车商品数量" sheetId="2" r:id="rId2"/>
+    <sheet name="删除购物车商品" sheetId="3" r:id="rId3"/>
+    <sheet name="查询普通购物车" sheetId="4" r:id="rId4"/>
+    <sheet name="查询阶梯价商品购物车" sheetId="5" r:id="rId5"/>
+    <sheet name="获取特卖商品购物车" sheetId="6" r:id="rId6"/>
+    <sheet name="获取秒杀商品购物车列表" sheetId="7" r:id="rId7"/>
+    <sheet name="获取是否拦截最低起购金额" sheetId="8" r:id="rId8"/>
+    <sheet name="结算购物车---获取用户的物流信息" sheetId="9" r:id="rId9"/>
+    <sheet name="结算购物车" sheetId="10" r:id="rId10"/>
+    <sheet name="提交订单" sheetId="11" r:id="rId11"/>
+    <sheet name="支付订单" sheetId="12" r:id="rId12"/>
+    <sheet name="是否完成支付" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="151">
   <si>
     <t>case_name</t>
   </si>
@@ -30,28 +40,740 @@
     <t>method</t>
   </si>
   <si>
-    <t>添加商品到购物车正确</t>
+    <t>url和参数都正确</t>
   </si>
   <si>
     <t>/goodsCart/addGoodsCart</t>
   </si>
   <si>
-    <t>{1234578}</t>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+  "number":"50"
+}</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>添加商品到购物车为空</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>添加商品到购物车为错误</t>
-  </si>
-  <si>
-    <t>{是发达}</t>
+    <t>url填写错误</t>
+  </si>
+  <si>
+    <t>/goodsCart/addGoodsCart1234</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"50"
+}</t>
+  </si>
+  <si>
+    <t>url为空</t>
+  </si>
+  <si>
+    <t>goodsId为空</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"",
+  "type":"2",
+  "number":"50"
+}</t>
+  </si>
+  <si>
+    <t>goodsId填写错误</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"wwe123",
+  "type":"2",
+  "number":"50"
+}</t>
+  </si>
+  <si>
+    <t>type为普通</t>
+  </si>
+  <si>
+    <t>type为特卖</t>
+  </si>
+  <si>
+    <t>type为秒杀</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"3",
+  "number":"50"
+}</t>
+  </si>
+  <si>
+    <t>type为阶梯价</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"4",
+  "number":"50"
+}</t>
+  </si>
+  <si>
+    <t>type填写错误</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"5",
+  "number":"50"
+}</t>
+  </si>
+  <si>
+    <t>type填写为空</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"",
+  "number":"50"
+}</t>
+  </si>
+  <si>
+    <t>number为0</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"0"
+}</t>
+  </si>
+  <si>
+    <t>number为50000</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"50000"
+}</t>
+  </si>
+  <si>
+    <t>number为50001</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"50001"
+}</t>
+  </si>
+  <si>
+    <t>number为错误</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"xxx"
+}</t>
+  </si>
+  <si>
+    <t>number为空</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":""
+}</t>
+  </si>
+  <si>
+    <t>/goodsCart/updateGoodsCart</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>/goodsCart/updateGoodsCart1111</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"",
+  "type":"2",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"xxxx",
+  "type":"2",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"3",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>秒杀不能修改商品数量</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"4",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"5",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"",
+  "number":"50",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"0",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"50000",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"50001",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"xxxx",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+  "number":"",
+  "oldBasketType":"1"
+}</t>
+  </si>
+  <si>
+    <t>oldBasketType为普通</t>
+  </si>
+  <si>
+    <t>oldBasketType为特卖</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+  "number":"50",
+  "oldBasketType":"2"
+}</t>
+  </si>
+  <si>
+    <t>oldBasketType为秒杀</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+  "number":"50",
+  "oldBasketType":"3"
+}</t>
+  </si>
+  <si>
+    <t>oldBasketType为阶梯价</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+  "number":"50",
+  "oldBasketType":"4"
+}</t>
+  </si>
+  <si>
+    <t>oldBasketType填写错误</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+  "number":"50",
+  "oldBasketType":"5"
+}</t>
+  </si>
+  <si>
+    <t>oldBasketType填写为空</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+  "number":"50",
+  "oldBasketType":""
+}</t>
+  </si>
+  <si>
+    <t>/goodsCart/delBasket</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"2",
+}</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>/goodsCart/delBasket1111</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"",
+  "type":"2",
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"xxxx",
+  "type":"2",
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"1",
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"3",
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"4",
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"5",
+}</t>
+  </si>
+  <si>
+    <t>{
+  "goodsId":"123456",
+  "type":"",
+}</t>
+  </si>
+  <si>
+    <t>/goodsCart/getGoodsBasket</t>
+  </si>
+  <si>
+    <t>{
+  "token":"123456",
+}</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/goodsCart/getGoodsBasket1111</t>
+  </si>
+  <si>
+    <t>token填写错误</t>
+  </si>
+  <si>
+    <t>token为空</t>
+  </si>
+  <si>
+    <t>{
+  "token":"",
+}</t>
+  </si>
+  <si>
+    <t>/goodsCart/getLadderBasket</t>
+  </si>
+  <si>
+    <t>/goodsCart/getLadderBasket1111</t>
+  </si>
+  <si>
+    <t>/goodsCart/getSpecialSaleBasket</t>
+  </si>
+  <si>
+    <t>/goodsCart/getSpecialSaleBasket1111</t>
+  </si>
+  <si>
+    <t>/goodsCart/getSeckillBasket</t>
+  </si>
+  <si>
+    <t>/goodsCart/getSeckillBasket1111</t>
+  </si>
+  <si>
+    <t>/activity/getVerifyMinMoney</t>
+  </si>
+  <si>
+    <t>/activity/getVerifyMinMoney11122</t>
+  </si>
+  <si>
+    <t>/placeOrder/userLogistics</t>
+  </si>
+  <si>
+    <t>/placeOrder/userLogistics11122</t>
+  </si>
+  <si>
+    <t>/placeOrder/settleAccount</t>
+  </si>
+  <si>
+    <t>[｛goodsId：2，type：3，number：45｝]</t>
+  </si>
+  <si>
+    <t>/placeOrder/settleAccount111</t>
+  </si>
+  <si>
+    <t>[｛goodsId：xx，type：3，number：45｝]</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：3，number：45｝]</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：1，number：45｝]</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：2，number：45｝]</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：4，number：45｝]</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：5，number：45｝]</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：，number：45｝]</t>
+  </si>
+  <si>
+    <t>number填写错误</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：，number：xxx｝]</t>
+  </si>
+  <si>
+    <t>[｛goodsId：，type：，number：｝]</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>/placeOrder/submitOrder</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："2",
+  "type":"1",
+  "invoice"："0",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>/placeOrder/submitOrder111</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："2",
+  "type":"1",
+  "invoice"："3",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>channel为PC端</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"1",
+  "invoice"："3",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>channel为APP端</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："1",
+  "type":"1",
+  "invoice"："3",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>channel填写错误</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："xxx",
+  "type":"1",
+  "invoice"："3",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>channel为空</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："",
+  "type":"1",
+  "invoice"："3",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>type为转账</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"0",
+  "invoice"："3",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>type为在线支付</t>
+  </si>
+  <si>
+    <t>invoice为增值普通发票</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"1",
+  "invoice"："0",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>invoice为字纸发票</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"1",
+  "invoice"："1",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>invoice为增值专用税发票</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"1",
+  "invoice"："2",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>invoice填写错误</t>
+  </si>
+  <si>
+    <t>invoice为空</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"1",
+  "invoice"："",
+  "remark"："beizhu",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"1",
+  "invoice"："2",
+  "remark"："@#￥",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>{
+  "channel"："0",
+  "type":"1",
+  "invoice"："2",
+  "remark"："",
+  "cartParams":[{"goodsId":2,
+                 "type": 1,
+                 "number":10}]}</t>
+  </si>
+  <si>
+    <t>/placeOrder/payMent</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："1",
+  "payableAmount":"1",
+  "orderNumber"："1"
+}</t>
+  </si>
+  <si>
+    <t>/placeOrder/payMent111</t>
+  </si>
+  <si>
+    <t>orderId填写错误</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："xxx",
+  "payableAmount":"1",
+  "orderNumber"："1"
+}</t>
+  </si>
+  <si>
+    <t>orderId为空</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："",
+  "payableAmount":"1",
+  "orderNumber"："1"
+}</t>
+  </si>
+  <si>
+    <t>payableAmount填写错误</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："1",
+  "payableAmount":"xxx",
+  "orderNumber"："1"
+}</t>
+  </si>
+  <si>
+    <t>payableAmount为空</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："1",
+  "payableAmount":"",
+  "orderNumber"："1"
+}</t>
+  </si>
+  <si>
+    <t>orderNumber填写错误</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："1",
+  "payableAmount":"1",
+  "orderNumber"："xxx"
+}</t>
+  </si>
+  <si>
+    <t>orderNumber为空</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："1",
+  "payableAmount":"1",
+  "orderNumber"：""
+}</t>
+  </si>
+  <si>
+    <t>/placeOrder/payResult</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："1"
+}</t>
+  </si>
+  <si>
+    <t>/placeOrder/payResult111</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"："xxx"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "orderId"：""
+}</t>
   </si>
 </sst>
 </file>
@@ -73,8 +795,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,23 +835,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,24 +858,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +874,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,56 +931,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,7 +948,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,13 +1062,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,157 +1122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,17 +1139,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,33 +1168,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +1206,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +1247,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,19 +1259,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,122 +1280,125 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1023,16 +1748,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
@@ -1051,45 +1776,225 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="67.5" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="69" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:4">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1100,17 +2005,1095 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:4">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:4">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:4">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="108" spans="1:4">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:4">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="1:4">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="108" spans="1:4">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="108" spans="1:4">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="108" spans="1:4">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="108" spans="1:4">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="108" spans="1:4">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="108" spans="1:4">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="108" spans="1:4">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" ht="117" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:4">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:4">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:4">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:4">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:4">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="61" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="81" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="81" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="81" spans="1:5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="81" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:4">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="81" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="81" spans="1:4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="81" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="81" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" ht="81" spans="1:4">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="81" spans="1:4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="81" spans="1:5">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" ht="81" spans="1:4">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" ht="81" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" ht="81" spans="1:4">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1120,16 +3103,742 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="66" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="51.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="72" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:4">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="66" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="47" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:4">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:4">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:4">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/API-Auto/testFile/case/购物车与结算.xlsx
+++ b/API-Auto/testFile/case/购物车与结算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="添加商品到购物车" sheetId="1" r:id="rId1"/>
@@ -795,6 +795,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -803,16 +840,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -829,21 +887,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -851,7 +894,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -859,7 +902,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,69 +931,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -948,7 +948,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,13 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1062,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,37 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,97 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,6 +1139,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1166,17 +1192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1188,6 +1203,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,39 +1239,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1247,10 +1247,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,133 +1259,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1750,8 +1750,8 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2651,7 +2651,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:4">
+    <row r="2" ht="40.5" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:4">
+    <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:4">
+    <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" ht="81" spans="1:4">
+    <row r="5" ht="40.5" spans="1:4">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="1:4">
+    <row r="6" ht="40.5" spans="1:4">
       <c r="A6" t="s">
         <v>79</v>
       </c>

--- a/API-Auto/testFile/case/购物车与结算.xlsx
+++ b/API-Auto/testFile/case/购物车与结算.xlsx
@@ -26,11 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="155">
   <si>
     <t>case_name</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
@@ -40,7 +46,16 @@
     <t>method</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
     <t>url和参数都正确</t>
+  </si>
+  <si>
+    <t>192.168.31.93</t>
   </si>
   <si>
     <t>/goodsCart/addGoodsCart</t>
@@ -508,9 +523,6 @@
   </si>
   <si>
     <t>[｛goodsId：，type：，number：｝]</t>
-  </si>
-  <si>
-    <t>result</t>
   </si>
   <si>
     <t>/placeOrder/submitOrder</t>
@@ -781,9 +793,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -796,29 +808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,7 +831,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,18 +911,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,45 +937,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,7 +945,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,13 +960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +978,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,61 +1068,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,13 +1092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,43 +1128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,21 +1151,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1216,15 +1213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1239,6 +1227,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1247,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1259,137 +1271,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,6 +1411,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1748,254 +1764,364 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="1" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="67.5" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10070</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="67.5" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="69" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="69" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:6">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:4">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:4">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:6">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="67.5" spans="1:4">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:4">
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:6">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="67.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:6">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="67.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:6">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:6">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="67.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:6">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="67.5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" spans="1:6">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10070</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2026,192 +2152,192 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2243,238 +2369,238 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:4">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="108" spans="1:4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:4">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:4">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:4">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="108" spans="1:4">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="108" spans="1:4">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="108" spans="1:4">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="108" spans="1:4">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="108" spans="1:4">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="108" spans="1:4">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="108" spans="1:4">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="108" spans="1:4">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2504,140 +2630,140 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="117" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:4">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:4">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:4">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:4">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:4">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:4">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2668,81 +2794,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="61" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +2882,7 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A12"/>
     </sheetView>
   </sheetViews>
@@ -2773,324 +2899,324 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="81" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="81" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="81" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="81" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="81" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:4">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="81" spans="1:4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="81" spans="1:4">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="81" spans="1:5">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="81" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="81" spans="1:4">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="81" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3121,165 +3247,165 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="66" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" ht="54" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3310,81 +3436,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:4">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3414,81 +3540,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="66" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3519,81 +3645,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:4">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3624,81 +3750,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:4">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3728,45 +3854,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3796,45 +3922,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/API-Auto/testFile/case/购物车与结算.xlsx
+++ b/API-Auto/testFile/case/购物车与结算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="7" activeTab="12"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1添加商品到购物车" sheetId="1" r:id="rId1"/>
@@ -1087,6 +1087,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1094,31 +1109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,6 +1130,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1154,21 +1161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,7 +1171,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,9 +1199,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,13 +1229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1239,19 +1239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,67 +1275,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,7 +1311,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,19 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,49 +1407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,11 +1433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,6 +1459,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,10 +1500,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1486,23 +1510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,15 +1530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1538,10 +1538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1550,133 +1550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2813,8 +2813,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3717,7 +3717,7 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5176,7 +5176,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -5277,7 +5277,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
